--- a/Results/BayesClassifierUtilityScores.xlsx
+++ b/Results/BayesClassifierUtilityScores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vesa\Documents\GitHub\Statistical-Genetics-and-Personalised-Medicine-Assignment\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27D5D3C-3A8A-4D9D-9DEC-935AFEE1B55D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43A62FC-92B5-44FC-B608-BCD60E738EB0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B3426346-9A12-427D-B1A7-CCE2777A6402}"/>
   </bookViews>
@@ -33,27 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="16">
   <si>
     <t>bfThreshhold</t>
   </si>
   <si>
     <t>dtAdvance</t>
-  </si>
-  <si>
-    <t>Pipe 1</t>
-  </si>
-  <si>
-    <t>Prior prob 0.0726</t>
-  </si>
-  <si>
-    <t>Pipe 2</t>
-  </si>
-  <si>
-    <t>Pipe 3</t>
-  </si>
-  <si>
-    <t>Prior prob 0.1</t>
   </si>
   <si>
     <t>Medium</t>
@@ -64,6 +49,39 @@
   <si>
     <t>High</t>
   </si>
+  <si>
+    <t>Prior probability: 0.1</t>
+  </si>
+  <si>
+    <t>MODEL 3</t>
+  </si>
+  <si>
+    <t>MODEL 1</t>
+  </si>
+  <si>
+    <t>Prior probability 0.0726</t>
+  </si>
+  <si>
+    <t>MODEL 2</t>
+  </si>
+  <si>
+    <t>For comparison:</t>
+  </si>
+  <si>
+    <t>Epochs: 500</t>
+  </si>
+  <si>
+    <t>dtAdvance: 5</t>
+  </si>
+  <si>
+    <t>Epochs: 5000</t>
+  </si>
+  <si>
+    <t>Epochs: 100 / Batch size: 30</t>
+  </si>
+  <si>
+    <t>dtAdvance: 9</t>
+  </si>
 </sst>
 </file>
 
@@ -72,7 +90,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,13 +111,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -114,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -130,6 +162,26 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,569 +497,726 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE438A3-259B-42CD-ADD8-77A51FBAA90F}">
-  <dimension ref="A1:Y56"/>
+  <dimension ref="A2:AG69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="AI23" sqref="AI23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="3" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.140625" style="3"/>
+    <col min="14" max="16" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6" style="3" customWidth="1"/>
+    <col min="18" max="20" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="9.140625" style="3"/>
+    <col min="24" max="24" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="9.140625" style="3"/>
+    <col min="28" max="28" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="W4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="H5" s="5">
+        <v>7</v>
+      </c>
+      <c r="I5" s="5">
+        <v>8</v>
+      </c>
+      <c r="J5" s="5">
+        <v>9</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="O5" s="5">
         <v>4</v>
       </c>
-      <c r="E3" s="3">
+      <c r="P5" s="5">
         <v>5</v>
       </c>
-      <c r="F3" s="3">
+      <c r="Q5" s="5">
         <v>6</v>
       </c>
-      <c r="G3" s="3">
+      <c r="R5" s="5">
         <v>7</v>
       </c>
-      <c r="H3" s="3">
+      <c r="S5" s="5">
         <v>8</v>
       </c>
-      <c r="I3" s="3">
+      <c r="T5" s="5">
         <v>9</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="3">
-        <v>3</v>
-      </c>
-      <c r="O3" s="3">
-        <v>4</v>
-      </c>
-      <c r="P3" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>6</v>
-      </c>
-      <c r="R3" s="3">
-        <v>7</v>
-      </c>
-      <c r="S3" s="3">
-        <v>8</v>
-      </c>
-      <c r="T3" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="X5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="L4" s="3" t="s">
+      <c r="Y5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="AC5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="L6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="X6" s="5">
         <v>-0.1</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6">
+      <c r="Y6" s="15">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>-0.1</v>
+      </c>
+      <c r="AC6" s="15">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>-0.1</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>-0.1</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="D5" s="6">
+      <c r="E7" s="6">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E5" s="6">
+      <c r="F7" s="6">
         <v>0.05</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G7" s="6">
         <v>0.05</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H7" s="6">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I7" s="6">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J7" s="6">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L7" s="5">
         <v>-0.1</v>
-      </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="O5" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="P5" s="6">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="R5" s="6">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="S5" s="6">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="T5" s="6">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>-0.2</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="E6" s="6">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="F6" s="6">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="G6" s="6">
-        <v>4.7E-2</v>
-      </c>
-      <c r="H6" s="6">
-        <v>4.7E-2</v>
-      </c>
-      <c r="I6" s="6">
-        <v>4.7E-2</v>
-      </c>
-      <c r="L6" s="3">
-        <v>-0.2</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="O6" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="P6" s="6">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="R6" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="S6" s="6">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="T6" s="6">
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>-0.3</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="D7" s="6">
-        <v>4.7E-2</v>
-      </c>
-      <c r="E7" s="6">
-        <v>4.7E-2</v>
-      </c>
-      <c r="F7" s="6">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="G7" s="6">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="H7" s="6">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="I7" s="6">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="L7" s="3">
-        <v>-0.3</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="P7" s="6">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="O7" s="6">
+      <c r="Q7" s="6">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="P7" s="6">
+      <c r="R7" s="6">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="S7" s="6">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="T7" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="X7" s="5">
+        <v>-0.2</v>
+      </c>
+      <c r="Y7" s="15">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>-0.2</v>
+      </c>
+      <c r="AC7" s="15">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>-0.2</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
+        <v>-0.2</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="6">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="Q7" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="R7" s="6">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="S7" s="6">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="T7" s="6">
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>-0.4</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6">
-        <v>4.7E-2</v>
-      </c>
-      <c r="D8" s="6">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E8" s="6">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="F8" s="6">
-        <v>4.4999999999999998E-2</v>
-      </c>
       <c r="G8" s="6">
-        <v>4.4999999999999998E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="H8" s="6">
-        <v>4.3999999999999997E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="I8" s="6">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="L8" s="3">
-        <v>-0.4</v>
+        <v>4.7E-2</v>
+      </c>
+      <c r="J8" s="6">
+        <v>4.7E-2</v>
+      </c>
+      <c r="L8" s="5">
+        <v>-0.2</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="6">
         <v>0.05</v>
       </c>
       <c r="O8" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="P8" s="6">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="S8" s="6">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="P8" s="6">
+      <c r="T8" s="6">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="Q8" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="R8" s="6">
+      <c r="X8" s="5">
+        <v>-0.3</v>
+      </c>
+      <c r="Y8" s="15">
+        <v>7.8E-2</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>-0.3</v>
+      </c>
+      <c r="AC8" s="15">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>-0.3</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>-0.3</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="S8" s="6">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="T8" s="6">
-        <v>4.7E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6">
+      <c r="E9" s="6">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F9" s="6">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G9" s="6">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="D9" s="6">
+      <c r="H9" s="6">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="E9" s="6">
+      <c r="I9" s="6">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F9" s="6">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="G9" s="6">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="H9" s="6">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="I9" s="6">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="L9" s="3">
-        <v>-0.5</v>
+      <c r="J9" s="6">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="L9" s="5">
+        <v>-0.3</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="6">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="O9" s="6">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="P9" s="6">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="Q9" s="6">
         <v>0.05</v>
       </c>
-      <c r="O9" s="6">
+      <c r="R9" s="6">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="P9" s="6">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="R9" s="6">
-        <v>4.7E-2</v>
-      </c>
       <c r="S9" s="6">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="T9" s="6">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="X9" s="5">
+        <v>-0.4</v>
+      </c>
+      <c r="Y9" s="15">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>-0.4</v>
+      </c>
+      <c r="AC9" s="15">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>-0.4</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <v>-0.4</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F10" s="6">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="T9" s="6">
-        <v>4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>-0.6</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6">
+      <c r="G10" s="6">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D10" s="6">
+      <c r="H10" s="6">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I10" s="6">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="E10" s="6">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="F10" s="6">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="G10" s="6">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="I10" s="6">
-        <v>3.9E-2</v>
-      </c>
-      <c r="L10" s="3">
-        <v>-0.6</v>
+      <c r="J10" s="6">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="L10" s="5">
+        <v>-0.4</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="O10" s="6">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="P10" s="6">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="R10" s="6">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="S10" s="6">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="O10" s="6">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="P10" s="6">
-        <v>4.7E-2</v>
-      </c>
-      <c r="Q10" s="6">
+      <c r="T10" s="6">
+        <v>4.7E-2</v>
+      </c>
+      <c r="X10" s="5">
+        <v>-0.5</v>
+      </c>
+      <c r="Y10" s="15">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>-0.5</v>
+      </c>
+      <c r="AC10" s="15">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>-0.5</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>-0.5</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="R10" s="6">
+      <c r="E11" s="6">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="S10" s="6">
+      <c r="F11" s="6">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="T10" s="6">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>-0.7</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6">
+      <c r="G11" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="H11" s="6">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="D11" s="6">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="I11" s="6">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="F11" s="6">
-        <v>0.04</v>
-      </c>
-      <c r="G11" s="6">
-        <v>3.9E-2</v>
-      </c>
-      <c r="H11" s="6">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="I11" s="6">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="L11" s="3">
-        <v>-0.7</v>
+      <c r="J11" s="6">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="L11" s="5">
+        <v>-0.5</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="6">
-        <v>4.7E-2</v>
+        <v>0.05</v>
       </c>
       <c r="O11" s="6">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="P11" s="6">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="R11" s="6">
+        <v>4.7E-2</v>
+      </c>
+      <c r="S11" s="6">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="P11" s="6">
+      <c r="T11" s="6">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="Q11" s="6">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="R11" s="6">
+      <c r="X11" s="5">
+        <v>-0.6</v>
+      </c>
+      <c r="Y11" s="15">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>-0.6</v>
+      </c>
+      <c r="AC11" s="15">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>-0.6</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <v>-0.6</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E12" s="6">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="S11" s="6">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="T11" s="6">
-        <v>4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>-0.8</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6">
+      <c r="F12" s="6">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G12" s="6">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H12" s="6">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="I12" s="6">
         <v>0.04</v>
       </c>
-      <c r="D12" s="6">
+      <c r="J12" s="6">
         <v>3.9E-2</v>
       </c>
-      <c r="E12" s="6">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="F12" s="6">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="G12" s="6">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="H12" s="6">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="I12" s="6">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="L12" s="3">
-        <v>-0.8</v>
+      <c r="L12" s="5">
+        <v>-0.6</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="6">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="O12" s="6">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="P12" s="6">
+        <v>4.7E-2</v>
+      </c>
+      <c r="Q12" s="6">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="O12" s="6">
+      <c r="R12" s="6">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="S12" s="6">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="P12" s="6">
+      <c r="T12" s="6">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="X12" s="5">
+        <v>-0.7</v>
+      </c>
+      <c r="Y12" s="15">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>-0.7</v>
+      </c>
+      <c r="AC12" s="15">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="AF12" s="5">
+        <v>-0.7</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>-0.7</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E13" s="6">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F13" s="6">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="H13" s="6">
+        <v>3.9E-2</v>
+      </c>
+      <c r="I13" s="6">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J13" s="6">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L13" s="5">
+        <v>-0.7</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="6">
+        <v>4.7E-2</v>
+      </c>
+      <c r="O13" s="6">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="P13" s="6">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="R13" s="6">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="S13" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="T13" s="6">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="R12" s="6">
+      <c r="X13" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="Y13" s="15">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="AC13" s="15">
+        <v>2.4E-2</v>
+      </c>
+      <c r="AF13" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F14" s="6">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G14" s="6">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I14" s="6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J14" s="6">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="L14" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="6">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="O14" s="6">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="P14" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="R14" s="6">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S14" s="6">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T14" s="6">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="7">
-        <f>MAX(C5:I12)</f>
-        <v>0.05</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="L14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M14" s="7">
-        <f>MAX(N5:T12)</f>
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="7">
-        <f>AVERAGE(C5:I12)</f>
-        <v>4.3999999999999984E-2</v>
-      </c>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1015,13 +1224,9 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="L15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" s="7">
-        <f>AVERAGE(N5:T12)</f>
-        <v>4.7714285714285709E-2</v>
-      </c>
+      <c r="J15" s="5"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="8"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
@@ -1030,27 +1235,27 @@
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="7">
-        <f>MIN(C5:I12)</f>
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="C16" s="5"/>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="10">
+        <f>MAX(D7:J14)</f>
+        <v>0.05</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="L16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="7">
-        <f>MIN(N5:T12)</f>
-        <v>4.1000000000000002E-2</v>
+      <c r="J16" s="5"/>
+      <c r="L16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" s="10">
+        <f>MAX(N7:T14)</f>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
@@ -1060,271 +1265,302 @@
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="10">
+        <f>AVERAGE(D7:J14)</f>
+        <v>4.3999999999999984E-2</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="L17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="10">
+        <f>AVERAGE(N7:T14)</f>
+        <v>4.7714285714285709E-2</v>
+      </c>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="10">
+        <f>MIN(D7:J14)</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="L18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="10">
+        <f>MIN(N7:T14)</f>
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
+        <v>3</v>
+      </c>
+      <c r="E24" s="5">
         <v>4</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="F24" s="5">
+        <v>5</v>
+      </c>
+      <c r="G24" s="5">
         <v>6</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="H24" s="5">
+        <v>7</v>
+      </c>
+      <c r="I24" s="5">
+        <v>8</v>
+      </c>
+      <c r="J24" s="5">
+        <v>9</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
-        <v>3</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="O24" s="5">
         <v>4</v>
       </c>
-      <c r="E23" s="3">
+      <c r="P24" s="5">
         <v>5</v>
       </c>
-      <c r="F23" s="3">
+      <c r="Q24" s="5">
         <v>6</v>
       </c>
-      <c r="G23" s="3">
+      <c r="R24" s="5">
         <v>7</v>
       </c>
-      <c r="H23" s="3">
+      <c r="S24" s="5">
         <v>8</v>
       </c>
-      <c r="I23" s="3">
+      <c r="T24" s="5">
         <v>9</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N23" s="3">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3">
-        <v>4</v>
-      </c>
-      <c r="P23" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>6</v>
-      </c>
-      <c r="R23" s="3">
-        <v>7</v>
-      </c>
-      <c r="S23" s="3">
-        <v>8</v>
-      </c>
-      <c r="T23" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="L24" s="3" t="s">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="L25" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="5">
         <v>-0.1</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6">
+      <c r="C26" s="5"/>
+      <c r="D26" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D25" s="6">
+      <c r="E26" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E25" s="6">
+      <c r="F26" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F25" s="6">
+      <c r="G26" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G25" s="6">
+      <c r="H26" s="6">
         <v>2.3E-2</v>
       </c>
-      <c r="H25" s="6">
+      <c r="I26" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="I25" s="6">
+      <c r="J26" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L26" s="5">
         <v>-0.1</v>
-      </c>
-      <c r="M25" s="5"/>
-      <c r="N25" s="6">
-        <v>2.7E-2</v>
-      </c>
-      <c r="O25" s="6">
-        <v>2.7E-2</v>
-      </c>
-      <c r="P25" s="6">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>2.7E-2</v>
-      </c>
-      <c r="R25" s="6">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="S25" s="6">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="T25" s="6">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>-0.2</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6">
-        <v>2.3E-2</v>
-      </c>
-      <c r="D26" s="6">
-        <v>2.4E-2</v>
-      </c>
-      <c r="E26" s="6">
-        <v>2.4E-2</v>
-      </c>
-      <c r="F26" s="6">
-        <v>2.3E-2</v>
-      </c>
-      <c r="G26" s="6">
-        <v>2.3E-2</v>
-      </c>
-      <c r="H26" s="6">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="I26" s="6">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-0.2</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="6">
-        <v>2.5999999999999999E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="O26" s="6">
         <v>2.7E-2</v>
       </c>
       <c r="P26" s="6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>2.7E-2</v>
+      </c>
+      <c r="R26" s="6">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="S26" s="6">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="R26" s="6">
+      <c r="T26" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="S26" s="6">
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="5">
+        <v>-0.2</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E27" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="T26" s="6">
+      <c r="F27" s="6">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G27" s="6">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>-0.3</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6">
+      <c r="H27" s="6">
         <v>2.3E-2</v>
       </c>
-      <c r="D27" s="6">
-        <v>2.4E-2</v>
-      </c>
-      <c r="E27" s="6">
-        <v>2.3E-2</v>
-      </c>
-      <c r="F27" s="6">
+      <c r="I27" s="6">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="G27" s="6">
+      <c r="J27" s="6">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="H27" s="6">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="I27" s="6">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-0.3</v>
+      <c r="L27" s="5">
+        <v>-0.2</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="6">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="O27" s="6">
+        <v>2.7E-2</v>
+      </c>
+      <c r="P27" s="6">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="R27" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="O27" s="6">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="P27" s="6">
+      <c r="S27" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="Q27" s="6">
-        <v>2.4E-2</v>
-      </c>
-      <c r="R27" s="6">
+      <c r="T27" s="6">
         <v>2.3E-2</v>
       </c>
-      <c r="S27" s="6">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="T27" s="6">
-        <v>2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>-0.4</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6">
-        <v>2.3E-2</v>
-      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="5">
+        <v>-0.3</v>
+      </c>
+      <c r="C28" s="5"/>
       <c r="D28" s="6">
         <v>2.3E-2</v>
       </c>
       <c r="E28" s="6">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F28" s="6">
         <v>2.3E-2</v>
       </c>
-      <c r="F28" s="6">
+      <c r="G28" s="6">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="G28" s="6">
-        <v>0.02</v>
-      </c>
       <c r="H28" s="6">
-        <v>1.7999999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="I28" s="6">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="L28" s="3">
-        <v>-0.4</v>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J28" s="6">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="L28" s="5">
+        <v>-0.3</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="6">
@@ -1337,7 +1573,7 @@
         <v>2.4E-2</v>
       </c>
       <c r="Q28" s="6">
-        <v>2.3E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="R28" s="6">
         <v>2.3E-2</v>
@@ -1346,243 +1582,270 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="T28" s="6">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="5">
+        <v>-0.4</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E29" s="6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F29" s="6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G29" s="6">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H29" s="6">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>-0.5</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6">
-        <v>2.3E-2</v>
-      </c>
-      <c r="D29" s="6">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="E29" s="6">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="F29" s="6">
+      <c r="I29" s="6">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G29" s="6">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="H29" s="6">
-        <v>1.4E-2</v>
-      </c>
-      <c r="I29" s="6">
-        <v>1.4E-2</v>
-      </c>
-      <c r="L29" s="3">
-        <v>-0.5</v>
+      <c r="J29" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L29" s="5">
+        <v>-0.4</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O29" s="6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="P29" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="O29" s="6">
+      <c r="Q29" s="6">
         <v>2.3E-2</v>
       </c>
-      <c r="P29" s="6">
+      <c r="R29" s="6">
         <v>2.3E-2</v>
       </c>
-      <c r="Q29" s="6">
+      <c r="S29" s="6">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="R29" s="6">
+      <c r="T29" s="6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="5">
+        <v>-0.5</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E30" s="6">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="S29" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="T29" s="6">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>-0.6</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6">
-        <v>0.02</v>
-      </c>
-      <c r="D30" s="6">
-        <v>1.9E-2</v>
-      </c>
-      <c r="E30" s="6">
+      <c r="F30" s="6">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H30" s="6">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F30" s="6">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G30" s="6">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="H30" s="6">
-        <v>1.2E-2</v>
-      </c>
       <c r="I30" s="6">
-        <v>1.2E-2</v>
-      </c>
-      <c r="L30" s="3">
-        <v>-0.6</v>
+        <v>1.4E-2</v>
+      </c>
+      <c r="J30" s="6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="L30" s="5">
+        <v>-0.5</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="6">
-        <v>2.3E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="O30" s="6">
         <v>2.3E-2</v>
       </c>
       <c r="P30" s="6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="Q30" s="6">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="R30" s="6">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="R30" s="6">
+      <c r="S30" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="T30" s="6">
         <v>1.9E-2</v>
       </c>
-      <c r="S30" s="6">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="T30" s="6">
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="5">
+        <v>-0.6</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F31" s="6">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>-0.7</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="D31" s="6">
+      <c r="G31" s="6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E31" s="6">
-        <v>1.4E-2</v>
-      </c>
-      <c r="F31" s="6">
+      <c r="H31" s="6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I31" s="6">
         <v>1.2E-2</v>
       </c>
-      <c r="G31" s="6">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="H31" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="I31" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="L31" s="3">
-        <v>-0.7</v>
+      <c r="J31" s="6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L31" s="5">
+        <v>-0.6</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="O31" s="6">
+        <v>2.3E-2</v>
+      </c>
+      <c r="P31" s="6">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="O31" s="6">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="P31" s="6">
+      <c r="Q31" s="6">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="Q31" s="6">
+      <c r="R31" s="6">
         <v>1.9E-2</v>
       </c>
-      <c r="R31" s="6">
+      <c r="S31" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T31" s="6">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="S31" s="6">
-        <v>1.6E-2</v>
-      </c>
-      <c r="T31" s="6">
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="5">
+        <v>-0.7</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F32" s="6">
         <v>1.4E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>-0.8</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D32" s="6">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E32" s="6">
+      <c r="G32" s="6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H32" s="6">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F32" s="6">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="G32" s="6">
+      <c r="I32" s="6">
         <v>0.01</v>
       </c>
-      <c r="H32" s="6">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="I32" s="6">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-0.8</v>
+      <c r="J32" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="L32" s="5">
+        <v>-0.7</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="6">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="O32" s="6">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="P32" s="6">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="O32" s="6">
+      <c r="Q32" s="6">
         <v>1.9E-2</v>
       </c>
-      <c r="P32" s="6">
+      <c r="R32" s="6">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="Q32" s="6">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R32" s="6">
-        <v>1.2999999999999999E-2</v>
-      </c>
       <c r="S32" s="6">
-        <v>1.2999999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="T32" s="6">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B33" s="5">
+        <v>-0.8</v>
+      </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
+      <c r="D33" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F33" s="6">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G33" s="6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="I33" s="6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J33" s="6">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L33" s="5">
+        <v>-0.8</v>
+      </c>
       <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="7">
-        <f>MAX(C25:I32)</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
+      <c r="N33" s="6">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="O33" s="6">
+        <v>1.9E-2</v>
+      </c>
+      <c r="P33" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R33" s="6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="S33" s="6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="T33" s="6">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -1590,13 +1853,8 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="L34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M34" s="7">
-        <f>MAX(N25:T32)</f>
-        <v>2.8000000000000001E-2</v>
-      </c>
+      <c r="J34" s="5"/>
+      <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
@@ -1605,27 +1863,27 @@
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="7">
-        <f>AVERAGE(C25:I32)</f>
-        <v>1.8500000000000006E-2</v>
-      </c>
-      <c r="C35" s="5"/>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B35" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="10">
+        <f>MAX(D26:J33)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
-      <c r="L35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M35" s="7">
-        <f>AVERAGE(N25:T32)</f>
-        <v>2.1910714285714283E-2</v>
+      <c r="J35" s="5"/>
+      <c r="L35" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="10">
+        <f>MAX(N26:T33)</f>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
@@ -1635,27 +1893,27 @@
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="7">
-        <f>MIN(C25:I32)</f>
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="C36" s="5"/>
+    <row r="36" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="10">
+        <f>AVERAGE(D26:J33)</f>
+        <v>1.8500000000000006E-2</v>
+      </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-      <c r="L36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M36" s="7">
-        <f>MIN(N25:T32)</f>
-        <v>1.2999999999999999E-2</v>
+      <c r="J36" s="5"/>
+      <c r="L36" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M36" s="10">
+        <f>AVERAGE(N26:T33)</f>
+        <v>2.1910714285714283E-2</v>
       </c>
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
@@ -1665,78 +1923,144 @@
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B37" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="10">
+        <f>MIN(D26:J33)</f>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="L37" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M37" s="10">
+        <f>MIN(N26:T33)</f>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+    </row>
+    <row r="38" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="C43" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5">
+        <v>3</v>
+      </c>
+      <c r="E43" s="5">
+        <v>4</v>
+      </c>
+      <c r="F43" s="5">
+        <v>5</v>
+      </c>
+      <c r="G43" s="5">
         <v>6</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="H43" s="5">
+        <v>7</v>
+      </c>
+      <c r="I43" s="5">
+        <v>8</v>
+      </c>
+      <c r="J43" s="5">
+        <v>9</v>
+      </c>
+      <c r="L43" s="5"/>
+      <c r="M43" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="N43" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="3">
-        <v>3</v>
-      </c>
-      <c r="D43" s="3">
+      <c r="O43" s="5">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
+      <c r="P43" s="5">
         <v>5</v>
       </c>
-      <c r="F43" s="3">
+      <c r="Q43" s="5">
         <v>6</v>
       </c>
-      <c r="G43" s="3">
+      <c r="R43" s="5">
         <v>7</v>
       </c>
-      <c r="H43" s="3">
+      <c r="S43" s="5">
         <v>8</v>
       </c>
-      <c r="I43" s="3">
+      <c r="T43" s="5">
         <v>9</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N43" s="3">
-        <v>3</v>
-      </c>
-      <c r="O43" s="3">
-        <v>4</v>
-      </c>
-      <c r="P43" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>6</v>
-      </c>
-      <c r="R43" s="3">
-        <v>7</v>
-      </c>
-      <c r="S43" s="3">
-        <v>8</v>
-      </c>
-      <c r="T43" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="W43" s="5"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="L44" s="3" t="s">
+      <c r="J44" s="4"/>
+      <c r="L44" s="5" t="s">
         <v>0</v>
       </c>
       <c r="O44" s="4"/>
@@ -1745,433 +2069,503 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
-      <c r="Y44" s="2"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="W44" s="5"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B45" s="5">
         <v>-0.1</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="7">
-        <v>5.3999999999999999E-2</v>
-      </c>
+      <c r="C45" s="5"/>
       <c r="D45" s="7">
-        <v>5.7000000000000002E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="E45" s="7">
-        <v>5.8999999999999997E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="F45" s="7">
-        <v>6.0999999999999999E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="G45" s="7">
-        <v>6.0999999999999999E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H45" s="7">
-        <v>4.7E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="I45" s="7">
-        <v>4.7E-2</v>
-      </c>
-      <c r="L45" s="3">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="J45" s="7">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="L45" s="5">
         <v>-0.1</v>
       </c>
       <c r="M45" s="5"/>
       <c r="N45" s="7">
-        <v>4.8000000000000001E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="O45" s="7">
-        <v>4.7E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="P45" s="7">
-        <v>4.7E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="Q45" s="7">
-        <v>4.7E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="R45" s="7">
-        <v>4.7E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="S45" s="7">
-        <v>4.7E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="T45" s="7">
-        <v>4.7E-2</v>
-      </c>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
       <c r="Y45" s="2"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="2"/>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B46" s="5">
         <v>-0.2</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="7">
-        <v>5.7000000000000002E-2</v>
-      </c>
+      <c r="C46" s="5"/>
       <c r="D46" s="7">
-        <v>5.8999999999999997E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="E46" s="7">
-        <v>6.0999999999999999E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="F46" s="7">
-        <v>6.0999999999999999E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="G46" s="7">
-        <v>6.2E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H46" s="7">
-        <v>4.7E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="I46" s="7">
-        <v>4.7E-2</v>
-      </c>
-      <c r="L46" s="3">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="J46" s="7">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="L46" s="5">
         <v>-0.2</v>
       </c>
       <c r="M46" s="5"/>
       <c r="N46" s="7">
-        <v>4.8000000000000001E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="O46" s="7">
-        <v>4.8000000000000001E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="P46" s="7">
-        <v>4.7E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="Q46" s="7">
-        <v>4.7E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="R46" s="7">
-        <v>4.7E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="S46" s="7">
-        <v>4.7E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="T46" s="7">
-        <v>4.7E-2</v>
-      </c>
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
       <c r="Y46" s="2"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B47" s="5">
         <v>-0.3</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="7">
-        <v>0.06</v>
-      </c>
+      <c r="C47" s="5"/>
       <c r="D47" s="7">
-        <v>6.2E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="E47" s="7">
-        <v>6.2E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F47" s="7">
-        <v>6.3E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G47" s="7">
-        <v>6.3E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="H47" s="7">
-        <v>4.7E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="I47" s="7">
-        <v>4.7E-2</v>
-      </c>
-      <c r="L47" s="3">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="J47" s="7">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="L47" s="5">
         <v>-0.3</v>
       </c>
       <c r="M47" s="5"/>
       <c r="N47" s="7">
-        <v>4.8000000000000001E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="O47" s="7">
-        <v>4.7E-2</v>
+        <v>0.08</v>
       </c>
       <c r="P47" s="7">
-        <v>4.7E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="Q47" s="7">
-        <v>4.7E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="R47" s="7">
-        <v>4.7E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="S47" s="7">
-        <v>4.8000000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="T47" s="7">
-        <v>4.7E-2</v>
-      </c>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
       <c r="Y47" s="2"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B48" s="5">
         <v>-0.4</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="7">
-        <v>6.0999999999999999E-2</v>
-      </c>
+      <c r="C48" s="5"/>
       <c r="D48" s="7">
-        <v>6.2E-2</v>
+        <v>0.08</v>
       </c>
       <c r="E48" s="7">
-        <v>6.2E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="F48" s="7">
-        <v>6.3E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="G48" s="7">
-        <v>6.3E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="H48" s="7">
-        <v>4.7E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="I48" s="7">
-        <v>4.7E-2</v>
-      </c>
-      <c r="L48" s="3">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="J48" s="7">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="L48" s="5">
         <v>-0.4</v>
       </c>
       <c r="M48" s="5"/>
       <c r="N48" s="7">
-        <v>4.7E-2</v>
+        <v>0.08</v>
       </c>
       <c r="O48" s="7">
-        <v>4.7E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="P48" s="7">
-        <v>4.7E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="Q48" s="7">
-        <v>4.8000000000000001E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="R48" s="7">
-        <v>4.7E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="S48" s="7">
-        <v>4.7E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="T48" s="7">
-        <v>4.7699999999999999E-2</v>
-      </c>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
       <c r="Y48" s="2"/>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="2"/>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B49" s="5">
         <v>-0.5</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="7">
-        <v>6.2E-2</v>
-      </c>
+      <c r="C49" s="5"/>
       <c r="D49" s="7">
-        <v>6.3E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E49" s="7">
-        <v>6.4000000000000001E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="F49" s="7">
-        <v>6.4000000000000001E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G49" s="7">
-        <v>6.4000000000000001E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="H49" s="7">
-        <v>4.4999999999999998E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="I49" s="7">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="L49" s="3">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="J49" s="7">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="L49" s="5">
         <v>-0.5</v>
       </c>
       <c r="M49" s="5"/>
       <c r="N49" s="7">
-        <v>4.5999999999999999E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="O49" s="7">
-        <v>4.7E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="P49" s="7">
-        <v>4.8000000000000001E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="Q49" s="7">
-        <v>4.7E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="R49" s="7">
-        <v>4.8000000000000001E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="S49" s="7">
-        <v>4.8000000000000001E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="T49" s="7">
-        <v>4.7E-2</v>
-      </c>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
       <c r="Y49" s="2"/>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B50" s="5">
         <v>-0.6</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="7">
-        <v>6.4000000000000001E-2</v>
-      </c>
+      <c r="C50" s="5"/>
       <c r="D50" s="7">
-        <v>6.4000000000000001E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E50" s="7">
-        <v>6.4000000000000001E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="F50" s="7">
-        <v>6.3E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G50" s="7">
-        <v>6.3E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="H50" s="7">
-        <v>4.2999999999999997E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I50" s="7">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="L50" s="3">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="J50" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="L50" s="5">
         <v>-0.6</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="7">
-        <v>4.8000000000000001E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="O50" s="7">
-        <v>4.8000000000000001E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="P50" s="7">
-        <v>4.8000000000000001E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="Q50" s="7">
-        <v>4.7E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="R50" s="7">
-        <v>4.8000000000000001E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="S50" s="7">
-        <v>4.7E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="T50" s="7">
-        <v>4.7E-2</v>
-      </c>
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
       <c r="Y50" s="2"/>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B51" s="5">
         <v>-0.7</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="7">
-        <v>6.4000000000000001E-2</v>
-      </c>
+      <c r="C51" s="5"/>
       <c r="D51" s="7">
-        <v>6.3E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E51" s="7">
-        <v>6.3E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="F51" s="7">
-        <v>6.3E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="G51" s="7">
-        <v>6.4000000000000001E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H51" s="7">
-        <v>4.2999999999999997E-2</v>
+        <v>0.08</v>
       </c>
       <c r="I51" s="7">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="L51" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="J51" s="7">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="L51" s="5">
         <v>-0.7</v>
       </c>
       <c r="M51" s="5"/>
       <c r="N51" s="7">
-        <v>4.8000000000000001E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="O51" s="7">
-        <v>4.8000000000000001E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="P51" s="7">
-        <v>4.8000000000000001E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="Q51" s="7">
-        <v>4.7E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="R51" s="7">
-        <v>4.8000000000000001E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="S51" s="7">
-        <v>4.7E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="T51" s="7">
-        <v>4.7E-2</v>
-      </c>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
       <c r="Y51" s="2"/>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B52" s="5">
         <v>-0.8</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="7">
-        <v>6.3E-2</v>
-      </c>
+      <c r="C52" s="5"/>
       <c r="D52" s="7">
-        <v>6.2E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="E52" s="7">
-        <v>6.3E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="F52" s="7">
-        <v>6.4000000000000001E-2</v>
+        <v>0.08</v>
       </c>
       <c r="G52" s="7">
-        <v>6.5000000000000002E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="H52" s="7">
-        <v>4.2000000000000003E-2</v>
+        <v>0.08</v>
       </c>
       <c r="I52" s="7">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="L52" s="3">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="J52" s="7">
+        <v>7.8E-2</v>
+      </c>
+      <c r="L52" s="5">
         <v>-0.8</v>
       </c>
       <c r="M52" s="5"/>
       <c r="N52" s="7">
-        <v>4.7E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="O52" s="7">
-        <v>4.7E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="P52" s="7">
-        <v>4.7E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="Q52" s="7">
-        <v>4.7E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="R52" s="7">
-        <v>4.5999999999999999E-2</v>
+        <v>0.08</v>
       </c>
       <c r="S52" s="7">
-        <v>4.5999999999999999E-2</v>
+        <v>0.08</v>
       </c>
       <c r="T52" s="7">
-        <v>4.7E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B53" s="5"/>
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -2179,6 +2573,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
@@ -2188,27 +2583,29 @@
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="7">
-        <f>MAX(C45:I52)</f>
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="L54" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M54" s="7">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="10">
+        <f>MAX(D45:J52)</f>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="10">
         <f>MAX(N45:T52)</f>
-        <v>4.8000000000000001E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
@@ -2218,27 +2615,29 @@
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="7">
-        <f>AVERAGE(C45:I52)</f>
-        <v>5.7285714285714308E-2</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="L55" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M55" s="7">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="10">
+        <f>AVERAGE(D45:J52)</f>
+        <v>8.1107142857142864E-2</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M55" s="10">
         <f>AVERAGE(N45:T52)</f>
-        <v>4.726250000000002E-2</v>
+        <v>8.2071428571428601E-2</v>
       </c>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
@@ -2248,27 +2647,29 @@
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="7">
-        <f>MIN(C45:I52)</f>
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="L56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M56" s="7">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="10">
+        <f>MIN(D45:J52)</f>
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M56" s="10">
         <f>MIN(N45:T52)</f>
-        <v>4.5999999999999999E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
@@ -2278,8 +2679,92 @@
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
     </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
+      <c r="AB62" s="2"/>
+      <c r="AC62" s="2"/>
+      <c r="AD62" s="2"/>
+      <c r="AE62" s="2"/>
+      <c r="AF62" s="2"/>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="2"/>
+      <c r="AB63" s="2"/>
+      <c r="AC63" s="2"/>
+      <c r="AD63" s="2"/>
+      <c r="AE63" s="2"/>
+      <c r="AF63" s="2"/>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Z64" s="2"/>
+      <c r="AA64" s="2"/>
+      <c r="AB64" s="2"/>
+      <c r="AC64" s="2"/>
+      <c r="AD64" s="2"/>
+      <c r="AE64" s="2"/>
+      <c r="AF64" s="2"/>
+    </row>
+    <row r="65" spans="26:32" x14ac:dyDescent="0.25">
+      <c r="Z65" s="2"/>
+      <c r="AA65" s="2"/>
+      <c r="AB65" s="2"/>
+      <c r="AC65" s="2"/>
+      <c r="AD65" s="2"/>
+      <c r="AE65" s="2"/>
+      <c r="AF65" s="2"/>
+    </row>
+    <row r="66" spans="26:32" x14ac:dyDescent="0.25">
+      <c r="Z66" s="2"/>
+      <c r="AA66" s="2"/>
+      <c r="AB66" s="2"/>
+      <c r="AC66" s="2"/>
+      <c r="AD66" s="2"/>
+      <c r="AE66" s="2"/>
+      <c r="AF66" s="2"/>
+    </row>
+    <row r="67" spans="26:32" x14ac:dyDescent="0.25">
+      <c r="Z67" s="2"/>
+      <c r="AA67" s="2"/>
+      <c r="AB67" s="2"/>
+      <c r="AC67" s="2"/>
+      <c r="AD67" s="2"/>
+      <c r="AE67" s="2"/>
+      <c r="AF67" s="2"/>
+    </row>
+    <row r="68" spans="26:32" x14ac:dyDescent="0.25">
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
+      <c r="AB68" s="2"/>
+      <c r="AC68" s="2"/>
+      <c r="AD68" s="2"/>
+      <c r="AE68" s="2"/>
+      <c r="AF68" s="2"/>
+    </row>
+    <row r="69" spans="26:32" x14ac:dyDescent="0.25">
+      <c r="Z69" s="2"/>
+      <c r="AA69" s="2"/>
+      <c r="AB69" s="2"/>
+      <c r="AC69" s="2"/>
+      <c r="AD69" s="2"/>
+      <c r="AE69" s="2"/>
+      <c r="AF69" s="2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C5:I12">
+  <conditionalFormatting sqref="D7:J14">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7:T14">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2291,7 +2776,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:T12">
+  <conditionalFormatting sqref="N26:T33">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2303,7 +2788,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N25:T32">
+  <conditionalFormatting sqref="D26:J33">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2315,7 +2800,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:I32">
+  <conditionalFormatting sqref="N45:T52">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2327,7 +2812,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N45:T52">
+  <conditionalFormatting sqref="D45:J52">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2339,19 +2824,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C45:I52">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
